--- a/PCB/ESP32_Bottom_Rev2_BOM.xlsx
+++ b/PCB/ESP32_Bottom_Rev2_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrankin\Dropbox\Arduino_PCB\ESP32_uCNC\ESP32_Bottom\Project Outputs for ESP32_Bottom_Rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90467C3F-6229-416C-8B81-DAA1121E4431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2015B-691C-4A9C-B93A-9205F26ACB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24255" yWindow="570" windowWidth="22620" windowHeight="14835" xr2:uid="{E32909C4-3A66-40C6-A075-FE3C63F6AABB}"/>
+    <workbookView xWindow="-24255" yWindow="570" windowWidth="22620" windowHeight="14835" xr2:uid="{2C692295-ACB1-4768-88BC-8CB1B30F3F73}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_Bottom_Rev2_BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Designator</t>
   </si>
@@ -42,31 +42,37 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Vendor</t>
+    <t>Manufacturer</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Manufacturer</t>
+    <t>Part_Number</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
+    <t>LCSC</t>
+  </si>
+  <si>
     <t>CAP 150uF, 10V SMT</t>
   </si>
   <si>
-    <t>LCSC</t>
+    <t>Suncon</t>
   </si>
   <si>
     <t>150uF</t>
   </si>
   <si>
-    <t>Suncon</t>
+    <t>C242018</t>
   </si>
   <si>
     <t>C2</t>
@@ -75,10 +81,13 @@
     <t>CAP 22nF 16V 0402</t>
   </si>
   <si>
+    <t>Samsung</t>
+  </si>
+  <si>
     <t>22nF</t>
   </si>
   <si>
-    <t>Samsung</t>
+    <t>C318579</t>
   </si>
   <si>
     <t>H1</t>
@@ -87,21 +96,24 @@
     <t>CONN REPT 4X2 POS .100" RA</t>
   </si>
   <si>
+    <t>CONNFLY</t>
+  </si>
+  <si>
     <t>Female 4X2</t>
   </si>
   <si>
-    <t>CONNFLY</t>
+    <t>C92271</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
     <t>MTR,LINEAR,SMT</t>
   </si>
   <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
     <t>Linear Motor</t>
   </si>
   <si>
@@ -111,10 +123,13 @@
     <t>RES 10K 0402</t>
   </si>
   <si>
+    <t>Uniroyal</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>Uniroyal</t>
+    <t>C25744</t>
   </si>
   <si>
     <t>R2</t>
@@ -126,6 +141,9 @@
     <t>47K</t>
   </si>
   <si>
+    <t>C25792</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
@@ -135,6 +153,9 @@
     <t>90.9K</t>
   </si>
   <si>
+    <t>C26989</t>
+  </si>
+  <si>
     <t>R5</t>
   </si>
   <si>
@@ -144,6 +165,9 @@
     <t>4.99K</t>
   </si>
   <si>
+    <t>C25903</t>
+  </si>
+  <si>
     <t>R6, R7</t>
   </si>
   <si>
@@ -153,6 +177,9 @@
     <t>0.2R</t>
   </si>
   <si>
+    <t>C270629</t>
+  </si>
+  <si>
     <t>R8</t>
   </si>
   <si>
@@ -162,43 +189,58 @@
     <t>1K</t>
   </si>
   <si>
+    <t>C11702</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
     <t>SWITCH DETECT, DUAL, SMD,R/A</t>
   </si>
   <si>
+    <t>Alps</t>
+  </si>
+  <si>
     <t>Limit Switch</t>
   </si>
   <si>
-    <t>Alps</t>
+    <t>C231760</t>
   </si>
   <si>
     <t>ST1, ST2</t>
   </si>
   <si>
+    <t>pemnet.com</t>
+  </si>
+  <si>
     <t>STANDOFF PCB RA 440 SMT</t>
   </si>
   <si>
-    <t>pemnet.com</t>
+    <t>PENN</t>
   </si>
   <si>
     <t>RA Mount</t>
   </si>
   <si>
-    <t>PENN</t>
+    <t>SMTRA440-9-6ET</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
     <t>IC STEPPER MOTOR DRIVER 16-VFQFPN(3x3)</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>ST Micro</t>
+  </si>
+  <si>
+    <t>STSPIN220</t>
+  </si>
+  <si>
+    <t>shorturl.at/cQ269</t>
   </si>
 </sst>
 </file>
@@ -255,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,9 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,27 +622,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E0B006-342E-4F82-894A-4B979CA72BC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A1E34-2F77-4B61-9E67-7221C1AB584A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,261 +660,303 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
